--- a/backend/files/processed/发电日志_output_path.xlsx
+++ b/backend/files/processed/发电日志_output_path.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,88 +437,88 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>1#-2#</t>
+          <t>电机  编号</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>23752-154933</t>
+          <t>发电量（kwh）-本月</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>23752-154933.1</t>
+          <t>发电量（kwh）-本年</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>391.06-560.6</t>
+          <t>发电小时数</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>743.35-634.4</t>
+          <t>电机正常运行时间</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>0.65-109.6</t>
+          <t>电机故障小时数</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>594.165-506.09</t>
+          <t>电力有效小时数</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>非电机故障小时数-服务时间</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>0-0.1</t>
+          <t>非电机故障小时数-服务时间.1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>0-0.2</t>
+          <t>非电机故障小时数-人工停机时间</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>0.34-0</t>
+          <t>非电机故障小时数-风暴停机时间</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>99.9125944652126-85.2688172043011</t>
+          <t>电机可利用率%</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3#</t>
+          <t>1#</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>106986</v>
+        <v>23752</v>
       </c>
       <c r="C2" t="n">
-        <v>106986</v>
+        <v>23752</v>
       </c>
       <c r="D2" t="n">
-        <v>339.99</v>
+        <v>391.06</v>
       </c>
       <c r="E2" t="n">
-        <v>373.51</v>
+        <v>743.35</v>
       </c>
       <c r="F2" t="n">
-        <v>370.49</v>
+        <v>0.65</v>
       </c>
       <c r="G2" t="n">
-        <v>346.665</v>
+        <v>594.165</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -530,35 +530,35 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="L2" t="n">
-        <v>50.2029569892473</v>
+        <v>99.91259446521261</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4#</t>
+          <t>2#</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5136</v>
+        <v>154933</v>
       </c>
       <c r="C3" t="n">
-        <v>5136</v>
+        <v>154933</v>
       </c>
       <c r="D3" t="n">
-        <v>104.21</v>
+        <v>560.6</v>
       </c>
       <c r="E3" t="n">
-        <v>157.22</v>
+        <v>634.4</v>
       </c>
       <c r="F3" t="n">
-        <v>586.78</v>
+        <v>109.6</v>
       </c>
       <c r="G3" t="n">
-        <v>484.165</v>
+        <v>506.09</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -573,32 +573,32 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>21.1317204301075</v>
+        <v>85.2688172043011</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5#</t>
+          <t>3#</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>56297</v>
+        <v>106986</v>
       </c>
       <c r="C4" t="n">
-        <v>56297</v>
+        <v>106986</v>
       </c>
       <c r="D4" t="n">
-        <v>602.59</v>
+        <v>339.99</v>
       </c>
       <c r="E4" t="n">
-        <v>698.27</v>
+        <v>373.51</v>
       </c>
       <c r="F4" t="n">
-        <v>45.73</v>
+        <v>370.49</v>
       </c>
       <c r="G4" t="n">
-        <v>452.185</v>
+        <v>346.665</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -613,32 +613,32 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>93.85349462365591</v>
+        <v>50.2029569892473</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6#</t>
+          <t>4#</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>135798</v>
+        <v>5136</v>
       </c>
       <c r="C5" t="n">
-        <v>135798</v>
+        <v>5136</v>
       </c>
       <c r="D5" t="n">
-        <v>614.4400000000001</v>
+        <v>104.21</v>
       </c>
       <c r="E5" t="n">
-        <v>738.86</v>
+        <v>157.22</v>
       </c>
       <c r="F5" t="n">
-        <v>5.14</v>
+        <v>586.78</v>
       </c>
       <c r="G5" t="n">
-        <v>460.275</v>
+        <v>484.165</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -653,32 +653,32 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>99.3091397849462</v>
+        <v>21.1317204301075</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>7#</t>
+          <t>5#</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>116711</v>
+        <v>56297</v>
       </c>
       <c r="C6" t="n">
-        <v>116711</v>
+        <v>56297</v>
       </c>
       <c r="D6" t="n">
-        <v>406.31</v>
+        <v>602.59</v>
       </c>
       <c r="E6" t="n">
-        <v>440.21</v>
+        <v>698.27</v>
       </c>
       <c r="F6" t="n">
-        <v>303.79</v>
+        <v>45.73</v>
       </c>
       <c r="G6" t="n">
-        <v>457.615</v>
+        <v>452.185</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -693,32 +693,32 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>59.1680107526882</v>
+        <v>93.85349462365591</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>8#</t>
+          <t>6#</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>119323</v>
+        <v>135798</v>
       </c>
       <c r="C7" t="n">
-        <v>119323</v>
+        <v>135798</v>
       </c>
       <c r="D7" t="n">
-        <v>384.73</v>
+        <v>614.4400000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>499.4</v>
+        <v>738.86</v>
       </c>
       <c r="F7" t="n">
-        <v>244.6</v>
+        <v>5.14</v>
       </c>
       <c r="G7" t="n">
-        <v>518.78</v>
+        <v>460.275</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -733,32 +733,32 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>67.1236559139785</v>
+        <v>99.3091397849462</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>9#</t>
+          <t>7#</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>145737</v>
+        <v>116711</v>
       </c>
       <c r="C8" t="n">
-        <v>145737</v>
+        <v>116711</v>
       </c>
       <c r="D8" t="n">
-        <v>676.83</v>
+        <v>406.31</v>
       </c>
       <c r="E8" t="n">
-        <v>743.47</v>
+        <v>440.21</v>
       </c>
       <c r="F8" t="n">
-        <v>0.53</v>
+        <v>303.79</v>
       </c>
       <c r="G8" t="n">
-        <v>509.18</v>
+        <v>457.615</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -773,32 +773,32 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>99.92876344086019</v>
+        <v>59.1680107526882</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>10#</t>
+          <t>8#</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>38865</v>
+        <v>119323</v>
       </c>
       <c r="C9" t="n">
-        <v>38865</v>
+        <v>119323</v>
       </c>
       <c r="D9" t="n">
-        <v>253.97</v>
+        <v>384.73</v>
       </c>
       <c r="E9" t="n">
-        <v>339.7</v>
+        <v>499.4</v>
       </c>
       <c r="F9" t="n">
-        <v>404.3</v>
+        <v>244.6</v>
       </c>
       <c r="G9" t="n">
-        <v>387.5725</v>
+        <v>518.78</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -813,32 +813,32 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>45.6586021505376</v>
+        <v>67.1236559139785</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>11#</t>
+          <t>9#</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>145737</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>145737</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>676.83</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>743.47</v>
       </c>
       <c r="F10" t="n">
-        <v>744</v>
+        <v>0.53</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>509.18</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -853,32 +853,32 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>99.92876344086019</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>12#</t>
+          <t>10#</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>161990</v>
+        <v>38865</v>
       </c>
       <c r="C11" t="n">
-        <v>161990</v>
+        <v>38865</v>
       </c>
       <c r="D11" t="n">
-        <v>668.8200000000001</v>
+        <v>253.97</v>
       </c>
       <c r="E11" t="n">
-        <v>744</v>
+        <v>339.7</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>404.3</v>
       </c>
       <c r="G11" t="n">
-        <v>478.31</v>
+        <v>387.5725</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -893,32 +893,32 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>100</v>
+        <v>45.6586021505376</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>13#</t>
+          <t>11#</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>101978</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>101978</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>335.84</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>363.97</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>380.03</v>
+        <v>744</v>
       </c>
       <c r="G12" t="n">
-        <v>561.6799999999999</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -933,32 +933,32 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>48.9206989247312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>14#</t>
+          <t>12#</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>57218</v>
+        <v>161990</v>
       </c>
       <c r="C13" t="n">
-        <v>57218</v>
+        <v>161990</v>
       </c>
       <c r="D13" t="n">
-        <v>321.03</v>
+        <v>668.8200000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>370.28</v>
+        <v>744</v>
       </c>
       <c r="F13" t="n">
-        <v>373.72</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>350.19</v>
+        <v>478.31</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -973,32 +973,32 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>49.7688172043011</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>15#</t>
+          <t>13#</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>170967</v>
+        <v>101978</v>
       </c>
       <c r="C14" t="n">
-        <v>170967</v>
+        <v>101978</v>
       </c>
       <c r="D14" t="n">
-        <v>615.95</v>
+        <v>335.84</v>
       </c>
       <c r="E14" t="n">
-        <v>683.73</v>
+        <v>363.97</v>
       </c>
       <c r="F14" t="n">
-        <v>60.27</v>
+        <v>380.03</v>
       </c>
       <c r="G14" t="n">
-        <v>535.61</v>
+        <v>561.6799999999999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1013,32 +1013,32 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>91.8991935483871</v>
+        <v>48.9206989247312</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>16#</t>
+          <t>14#</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>132525</v>
+        <v>57218</v>
       </c>
       <c r="C15" t="n">
-        <v>132525</v>
+        <v>57218</v>
       </c>
       <c r="D15" t="n">
-        <v>394.45</v>
+        <v>321.03</v>
       </c>
       <c r="E15" t="n">
-        <v>625.5700000000001</v>
+        <v>370.28</v>
       </c>
       <c r="F15" t="n">
-        <v>118.43</v>
+        <v>373.72</v>
       </c>
       <c r="G15" t="n">
-        <v>365.34</v>
+        <v>350.19</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1053,32 +1053,32 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>84.0819892473118</v>
+        <v>49.7688172043011</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>17#</t>
+          <t>15#</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>200392</v>
+        <v>170967</v>
       </c>
       <c r="C16" t="n">
-        <v>200392</v>
+        <v>170967</v>
       </c>
       <c r="D16" t="n">
-        <v>667.34</v>
+        <v>615.95</v>
       </c>
       <c r="E16" t="n">
-        <v>732.6799999999999</v>
+        <v>683.73</v>
       </c>
       <c r="F16" t="n">
-        <v>11.32</v>
+        <v>60.27</v>
       </c>
       <c r="G16" t="n">
-        <v>522.335</v>
+        <v>535.61</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1093,32 +1093,32 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>98.47849462365591</v>
+        <v>91.8991935483871</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>18#</t>
+          <t>16#</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>157918</v>
+        <v>132525</v>
       </c>
       <c r="C17" t="n">
-        <v>157918</v>
+        <v>132525</v>
       </c>
       <c r="D17" t="n">
-        <v>318.3</v>
+        <v>394.45</v>
       </c>
       <c r="E17" t="n">
-        <v>605.17</v>
+        <v>625.5700000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>138.83</v>
+        <v>118.43</v>
       </c>
       <c r="G17" t="n">
-        <v>335.315</v>
+        <v>365.34</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1133,32 +1133,32 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>81.34005376344081</v>
+        <v>84.0819892473118</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>19#</t>
+          <t>17#</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>200392</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>200392</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>667.34</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>732.6799999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>744</v>
+        <v>11.32</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>522.335</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1173,32 +1173,32 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>98.47849462365591</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20#</t>
+          <t>18#</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52923</v>
+        <v>157918</v>
       </c>
       <c r="C19" t="n">
-        <v>52923</v>
+        <v>157918</v>
       </c>
       <c r="D19" t="n">
-        <v>158.67</v>
+        <v>318.3</v>
       </c>
       <c r="E19" t="n">
-        <v>744</v>
+        <v>605.17</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>138.83</v>
       </c>
       <c r="G19" t="n">
-        <v>100.18</v>
+        <v>335.315</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1213,32 +1213,32 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>100</v>
+        <v>81.34005376344081</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>21#</t>
+          <t>19#</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5175</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>5175</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>572</v>
+        <v>744</v>
       </c>
       <c r="G20" t="n">
-        <v>141.65</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1253,32 +1253,32 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>23.1182795698925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>22#</t>
+          <t>20#</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>51770</v>
+        <v>52923</v>
       </c>
       <c r="C21" t="n">
-        <v>51770</v>
+        <v>52923</v>
       </c>
       <c r="D21" t="n">
-        <v>179.36</v>
+        <v>158.67</v>
       </c>
       <c r="E21" t="n">
-        <v>723.6900000000001</v>
+        <v>744</v>
       </c>
       <c r="F21" t="n">
-        <v>20.31</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>159.555</v>
+        <v>100.18</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1293,32 +1293,32 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>97.2701612903226</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>23#</t>
+          <t>21#</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>25583</v>
+        <v>5175</v>
       </c>
       <c r="C22" t="n">
-        <v>25583</v>
+        <v>5175</v>
       </c>
       <c r="D22" t="n">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="E22" t="n">
-        <v>441.89</v>
+        <v>172</v>
       </c>
       <c r="F22" t="n">
-        <v>302.11</v>
+        <v>572</v>
       </c>
       <c r="G22" t="n">
-        <v>149.37</v>
+        <v>141.65</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1333,32 +1333,32 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>59.3938172043011</v>
+        <v>23.1182795698925</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>24#</t>
+          <t>22#</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>115365</v>
+        <v>51770</v>
       </c>
       <c r="C23" t="n">
-        <v>115365</v>
+        <v>51770</v>
       </c>
       <c r="D23" t="n">
-        <v>173.41</v>
+        <v>179.36</v>
       </c>
       <c r="E23" t="n">
-        <v>721.87</v>
+        <v>723.6900000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>22.13</v>
+        <v>20.31</v>
       </c>
       <c r="G23" t="n">
-        <v>159.76</v>
+        <v>159.555</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1373,32 +1373,32 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>97.02553763440859</v>
+        <v>97.2701612903226</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>25#</t>
+          <t>23#</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>102999</v>
+        <v>25583</v>
       </c>
       <c r="C24" t="n">
-        <v>102999</v>
+        <v>25583</v>
       </c>
       <c r="D24" t="n">
-        <v>195.57</v>
+        <v>97</v>
       </c>
       <c r="E24" t="n">
-        <v>533</v>
+        <v>441.89</v>
       </c>
       <c r="F24" t="n">
-        <v>211</v>
+        <v>302.11</v>
       </c>
       <c r="G24" t="n">
-        <v>155.05</v>
+        <v>149.37</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1413,32 +1413,32 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>71.6397849462366</v>
+        <v>59.3938172043011</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>26#</t>
+          <t>24#</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>135742</v>
+        <v>115365</v>
       </c>
       <c r="C25" t="n">
-        <v>135742</v>
+        <v>115365</v>
       </c>
       <c r="D25" t="n">
-        <v>185.94</v>
+        <v>173.41</v>
       </c>
       <c r="E25" t="n">
-        <v>744</v>
+        <v>721.87</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>22.13</v>
       </c>
       <c r="G25" t="n">
-        <v>146.69</v>
+        <v>159.76</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1453,32 +1453,32 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>100</v>
+        <v>97.02553763440859</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>27#</t>
+          <t>25#</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>105167</v>
+        <v>102999</v>
       </c>
       <c r="C26" t="n">
-        <v>105167</v>
+        <v>102999</v>
       </c>
       <c r="D26" t="n">
-        <v>87.66</v>
+        <v>195.57</v>
       </c>
       <c r="E26" t="n">
-        <v>629.67</v>
+        <v>533</v>
       </c>
       <c r="F26" t="n">
-        <v>114.33</v>
+        <v>211</v>
       </c>
       <c r="G26" t="n">
-        <v>168.35</v>
+        <v>155.05</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1493,32 +1493,32 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>84.633064516129</v>
+        <v>71.6397849462366</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>28#</t>
+          <t>26#</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>135742</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>135742</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>185.94</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="F27" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>146.69</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1533,32 +1533,32 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>29#</t>
+          <t>27#</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>49216</v>
+        <v>105167</v>
       </c>
       <c r="C28" t="n">
-        <v>49216</v>
+        <v>105167</v>
       </c>
       <c r="D28" t="n">
-        <v>93.23</v>
+        <v>87.66</v>
       </c>
       <c r="E28" t="n">
-        <v>415.16</v>
+        <v>629.67</v>
       </c>
       <c r="F28" t="n">
-        <v>328.84</v>
+        <v>114.33</v>
       </c>
       <c r="G28" t="n">
-        <v>166.05</v>
+        <v>168.35</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1573,32 +1573,32 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>55.8010752688172</v>
+        <v>84.633064516129</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>30#</t>
+          <t>28#</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>146974</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>146974</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>199.78</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>744</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1613,32 +1613,32 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>统计值</t>
+          <t>29#</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2677440</v>
+        <v>49216</v>
       </c>
       <c r="C30" t="n">
-        <v>2677440</v>
+        <v>49216</v>
       </c>
       <c r="D30" t="n">
-        <v>9033.08</v>
+        <v>93.23</v>
       </c>
       <c r="E30" t="n">
-        <v>15363.07</v>
+        <v>415.16</v>
       </c>
       <c r="F30" t="n">
-        <v>6956.93</v>
+        <v>328.84</v>
       </c>
       <c r="G30" t="n">
-        <v>9379.127500000001</v>
+        <v>166.05</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1650,147 +1650,115 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>68.8309574499157</v>
+        <v>55.8010752688172</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>30#</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>146974</v>
+      </c>
+      <c r="C31" t="n">
+        <v>146974</v>
+      </c>
+      <c r="D31" t="n">
+        <v>199.78</v>
+      </c>
+      <c r="E31" t="n">
+        <v>744</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>167</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>统计值</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B32" t="n">
+        <v>2677440</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2677440</v>
+      </c>
+      <c r="D32" t="n">
+        <v>9033.08</v>
+      </c>
+      <c r="E32" t="n">
+        <v>15363.07</v>
+      </c>
+      <c r="F32" t="n">
+        <v>6956.93</v>
+      </c>
+      <c r="G32" t="n">
+        <v>9379.127500000001</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="L32" t="n">
+        <v>68.8309574499157</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>统计值</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>累计量</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
         <is>
           <t>平均值</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>(kwh)</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>本月</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>本年</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>1.1月22日7时23分，20#-30#通讯中断，原因暂未查明.</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>1.1月22日7时23分，20#-30#通讯中断，原因暂未查明.</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>1.1月22日7时23分，20#-30#通讯中断，原因暂未查明.</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>1.1月22日7时23分，20#-30#通讯中断，原因暂未查明.</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>1.1月22日7时23分，20#-30#通讯中断，原因暂未查明.</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>1.1月22日7时23分，20#-30#通讯中断，原因暂未查明.</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>1.1月22日7时23分，20#-30#通讯中断，原因暂未查明.</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>1.1月22日7时23分，20#-30#通讯中断，原因暂未查明.</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>出场电量</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>2530920</v>
-      </c>
-      <c r="D33" t="n">
-        <v>2530920</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>1.1月22日7时23分，20#-30#通讯中断，原因暂未查明.</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>1.1月22日7时23分，20#-30#通讯中断，原因暂未查明.</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>1.1月22日7时23分，20#-30#通讯中断，原因暂未查明.</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>1.1月22日7时23分，20#-30#通讯中断，原因暂未查明.</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>1.1月22日7时23分，20#-30#通讯中断，原因暂未查明.</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>1.1月22日7时23分，20#-30#通讯中断，原因暂未查明.</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>1.1月22日7时23分，20#-30#通讯中断，原因暂未查明.</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>1.1月22日7时23分，20#-30#通讯中断，原因暂未查明.</t>
         </is>
       </c>
     </row>
@@ -1798,14 +1766,18 @@
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>下场电量</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>46620</v>
-      </c>
-      <c r="D34" t="n">
-        <v>46620</v>
+          <t>(kwh)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>本月</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>本年</t>
+        </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1852,14 +1824,14 @@
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
-          <t>发电量</t>
+          <t>出场电量</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2677440</v>
+        <v>2530920</v>
       </c>
       <c r="D35" t="n">
-        <v>2677440</v>
+        <v>2530920</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1906,14 +1878,14 @@
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
-          <t>综合场用电量</t>
+          <t>下场电量</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>193140</v>
+        <v>46620</v>
       </c>
       <c r="D36" t="n">
-        <v>193140</v>
+        <v>46620</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1960,14 +1932,14 @@
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>综合场用电率</t>
+          <t>发电量</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.0721360702760846</v>
+        <v>2677440</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0721360702760846</v>
+        <v>2677440</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2014,29 +1986,137 @@
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
+          <t>综合场用电量</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>193140</v>
+      </c>
+      <c r="D38" t="n">
+        <v>193140</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1.1月22日7时23分，20#-30#通讯中断，原因暂未查明.</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.1月22日7时23分，20#-30#通讯中断，原因暂未查明.</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>1.1月22日7时23分，20#-30#通讯中断，原因暂未查明.</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>1.1月22日7时23分，20#-30#通讯中断，原因暂未查明.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1.1月22日7时23分，20#-30#通讯中断，原因暂未查明.</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>1.1月22日7时23分，20#-30#通讯中断，原因暂未查明.</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>1.1月22日7时23分，20#-30#通讯中断，原因暂未查明.</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>1.1月22日7时23分，20#-30#通讯中断，原因暂未查明.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>综合场用电率</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0.0721360702760846</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.0721360702760846</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1.1月22日7时23分，20#-30#通讯中断，原因暂未查明.</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.1月22日7时23分，20#-30#通讯中断，原因暂未查明.</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1.1月22日7时23分，20#-30#通讯中断，原因暂未查明.</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>1.1月22日7时23分，20#-30#通讯中断，原因暂未查明.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1.1月22日7时23分，20#-30#通讯中断，原因暂未查明.</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>1.1月22日7时23分，20#-30#通讯中断，原因暂未查明.</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>1.1月22日7时23分，20#-30#通讯中断，原因暂未查明.</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>1.1月22日7时23分，20#-30#通讯中断，原因暂未查明.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
           <t>未结算电量</t>
         </is>
       </c>
-      <c r="C38" t="n">
+      <c r="C40" t="n">
         <v>2530920</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D40" t="n">
         <v>2530920</v>
       </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="n">
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="n">
         <v>6.05</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>m/s</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2049,7 +2129,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2060,88 +2140,88 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>1#-2#</t>
+          <t>电机  编号</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>113845-228520</t>
+          <t>发电量（kwh）-本月</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>137597-383453</t>
+          <t>发电量（kwh）-本年</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>371.57-642.43</t>
+          <t>发电小时数</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>604.35-653.48</t>
+          <t>电机正常运行时间</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>91.65-42.52</t>
+          <t>电机故障小时数</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>655.305-607.4782</t>
+          <t>电力有效小时数</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>非电机故障小时数-服务时间</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>0-0.1</t>
+          <t>非电机故障小时数-服务时间.1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>0-0.2</t>
+          <t>非电机故障小时数-人工停机时间</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>0-0.3</t>
+          <t>非电机故障小时数-风暴停机时间</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>86.8318965517241-93.8908045977011</t>
+          <t>电机可利用率%</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3#</t>
+          <t>1#</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>143406</v>
+        <v>113845</v>
       </c>
       <c r="C2" t="n">
-        <v>250392</v>
+        <v>137597</v>
       </c>
       <c r="D2" t="n">
-        <v>453.79</v>
+        <v>371.57</v>
       </c>
       <c r="E2" t="n">
-        <v>519.25</v>
+        <v>604.35</v>
       </c>
       <c r="F2" t="n">
-        <v>176.75</v>
+        <v>91.65000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>561.255</v>
+        <v>655.3049999999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -2156,32 +2236,32 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>74.60488505747129</v>
+        <v>86.8318965517241</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4#</t>
+          <t>2#</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>155366</v>
+        <v>228520</v>
       </c>
       <c r="C3" t="n">
-        <v>160502</v>
+        <v>383453</v>
       </c>
       <c r="D3" t="n">
-        <v>645.83</v>
+        <v>642.4299999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>667.22</v>
+        <v>653.48</v>
       </c>
       <c r="F3" t="n">
-        <v>28.78</v>
+        <v>42.52</v>
       </c>
       <c r="G3" t="n">
-        <v>566.03</v>
+        <v>607.4782</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2196,32 +2276,32 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95.8649425287356</v>
+        <v>93.89080459770111</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5#</t>
+          <t>3#</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80298</v>
+        <v>143406</v>
       </c>
       <c r="C4" t="n">
-        <v>136595</v>
+        <v>250392</v>
       </c>
       <c r="D4" t="n">
-        <v>599.34</v>
+        <v>453.79</v>
       </c>
       <c r="E4" t="n">
-        <v>631.03</v>
+        <v>519.25</v>
       </c>
       <c r="F4" t="n">
-        <v>64.97</v>
+        <v>176.75</v>
       </c>
       <c r="G4" t="n">
-        <v>544.38</v>
+        <v>561.255</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2236,32 +2316,32 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>90.6652298850575</v>
+        <v>74.60488505747129</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6#</t>
+          <t>4#</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>194328</v>
+        <v>155366</v>
       </c>
       <c r="C5" t="n">
-        <v>330126</v>
+        <v>160502</v>
       </c>
       <c r="D5" t="n">
-        <v>669.28</v>
+        <v>645.83</v>
       </c>
       <c r="E5" t="n">
-        <v>691.41</v>
+        <v>667.22</v>
       </c>
       <c r="F5" t="n">
-        <v>4.59</v>
+        <v>28.78</v>
       </c>
       <c r="G5" t="n">
-        <v>570.0599999999999</v>
+        <v>566.03</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -2276,32 +2356,32 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>99.3405172413793</v>
+        <v>95.8649425287356</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>7#</t>
+          <t>5#</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>156359</v>
+        <v>80298</v>
       </c>
       <c r="C6" t="n">
-        <v>273070</v>
+        <v>136595</v>
       </c>
       <c r="D6" t="n">
-        <v>559.72</v>
+        <v>599.34</v>
       </c>
       <c r="E6" t="n">
-        <v>610.4</v>
+        <v>631.03</v>
       </c>
       <c r="F6" t="n">
-        <v>85.59999999999999</v>
+        <v>64.97</v>
       </c>
       <c r="G6" t="n">
-        <v>582.17</v>
+        <v>544.38</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -2316,32 +2396,32 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>87.7011494252874</v>
+        <v>90.6652298850575</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>8#</t>
+          <t>6#</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>103593</v>
+        <v>194328</v>
       </c>
       <c r="C7" t="n">
-        <v>222916</v>
+        <v>330126</v>
       </c>
       <c r="D7" t="n">
-        <v>375.4</v>
+        <v>669.28</v>
       </c>
       <c r="E7" t="n">
-        <v>445.97</v>
+        <v>691.41</v>
       </c>
       <c r="F7" t="n">
-        <v>250.03</v>
+        <v>4.59</v>
       </c>
       <c r="G7" t="n">
-        <v>619.9299999999999</v>
+        <v>570.0599999999999</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -2356,32 +2436,32 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>64.0761494252874</v>
+        <v>99.3405172413793</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>9#</t>
+          <t>7#</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>207247</v>
+        <v>156359</v>
       </c>
       <c r="C8" t="n">
-        <v>352984</v>
+        <v>273070</v>
       </c>
       <c r="D8" t="n">
-        <v>684.45</v>
+        <v>559.72</v>
       </c>
       <c r="E8" t="n">
-        <v>695.79</v>
+        <v>610.4</v>
       </c>
       <c r="F8" t="n">
-        <v>0.21</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>638.845</v>
+        <v>582.17</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -2396,32 +2476,32 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>99.9698275862069</v>
+        <v>87.7011494252874</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>10#</t>
+          <t>8#</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>182766</v>
+        <v>103593</v>
       </c>
       <c r="C9" t="n">
-        <v>221631</v>
+        <v>222916</v>
       </c>
       <c r="D9" t="n">
-        <v>680.13</v>
+        <v>375.4</v>
       </c>
       <c r="E9" t="n">
-        <v>695.79</v>
+        <v>445.97</v>
       </c>
       <c r="F9" t="n">
-        <v>0.21</v>
+        <v>250.03</v>
       </c>
       <c r="G9" t="n">
-        <v>575.9563000000001</v>
+        <v>619.9299999999999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -2436,32 +2516,32 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>99.9698275862069</v>
+        <v>64.0761494252874</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>11#</t>
+          <t>9#</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>207247</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>352984</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>684.45</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>695.79</v>
       </c>
       <c r="F10" t="n">
-        <v>696</v>
+        <v>0.21</v>
       </c>
       <c r="G10" t="n">
-        <v>24</v>
+        <v>638.845</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -2476,32 +2556,32 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>99.9698275862069</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>12#</t>
+          <t>10#</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>172294</v>
+        <v>182766</v>
       </c>
       <c r="C11" t="n">
-        <v>334284</v>
+        <v>221631</v>
       </c>
       <c r="D11" t="n">
-        <v>588.17</v>
+        <v>680.13</v>
       </c>
       <c r="E11" t="n">
-        <v>623.1900000000001</v>
+        <v>695.79</v>
       </c>
       <c r="F11" t="n">
-        <v>72.81</v>
+        <v>0.21</v>
       </c>
       <c r="G11" t="n">
-        <v>575.975</v>
+        <v>575.9563000000001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -2516,32 +2596,32 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>89.5387931034483</v>
+        <v>99.9698275862069</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>13#</t>
+          <t>11#</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>262908</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>364886</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>661.9</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>677.62</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>18.38</v>
+        <v>696</v>
       </c>
       <c r="G12" t="n">
-        <v>649.35</v>
+        <v>24</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -2556,32 +2636,32 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>97.35919540229889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>14#</t>
+          <t>12#</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>127836</v>
+        <v>172294</v>
       </c>
       <c r="C13" t="n">
-        <v>185054</v>
+        <v>334284</v>
       </c>
       <c r="D13" t="n">
-        <v>379.56</v>
+        <v>588.17</v>
       </c>
       <c r="E13" t="n">
-        <v>427.26</v>
+        <v>623.1900000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>268.74</v>
+        <v>72.81</v>
       </c>
       <c r="G13" t="n">
-        <v>501.79</v>
+        <v>575.975</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -2596,32 +2676,32 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>61.3879310344828</v>
+        <v>89.5387931034483</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>15#</t>
+          <t>13#</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>238748</v>
+        <v>262908</v>
       </c>
       <c r="C14" t="n">
-        <v>409715</v>
+        <v>364886</v>
       </c>
       <c r="D14" t="n">
-        <v>551.84</v>
+        <v>661.9</v>
       </c>
       <c r="E14" t="n">
-        <v>593.96</v>
+        <v>677.62</v>
       </c>
       <c r="F14" t="n">
-        <v>102.04</v>
+        <v>18.38</v>
       </c>
       <c r="G14" t="n">
-        <v>567.0913</v>
+        <v>649.35</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -2636,32 +2716,32 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>85.3390804597701</v>
+        <v>97.35919540229889</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>16#</t>
+          <t>14#</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6420</v>
+        <v>127836</v>
       </c>
       <c r="C15" t="n">
-        <v>138945</v>
+        <v>185054</v>
       </c>
       <c r="D15" t="n">
-        <v>61.04</v>
+        <v>379.56</v>
       </c>
       <c r="E15" t="n">
-        <v>263.78</v>
+        <v>427.26</v>
       </c>
       <c r="F15" t="n">
-        <v>432.22</v>
+        <v>268.74</v>
       </c>
       <c r="G15" t="n">
-        <v>423.66</v>
+        <v>501.79</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -2676,32 +2756,32 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>37.8994252873563</v>
+        <v>61.3879310344828</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>17#</t>
+          <t>15#</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>285420</v>
+        <v>238748</v>
       </c>
       <c r="C16" t="n">
-        <v>485812</v>
+        <v>409715</v>
       </c>
       <c r="D16" t="n">
-        <v>654.49</v>
+        <v>551.84</v>
       </c>
       <c r="E16" t="n">
-        <v>696</v>
+        <v>593.96</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>102.04</v>
       </c>
       <c r="G16" t="n">
-        <v>601.89</v>
+        <v>567.0913</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -2716,32 +2796,32 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>100</v>
+        <v>85.3390804597701</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>18#</t>
+          <t>16#</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>12944</v>
+        <v>6420</v>
       </c>
       <c r="C17" t="n">
-        <v>170862</v>
+        <v>138945</v>
       </c>
       <c r="D17" t="n">
-        <v>22.78</v>
+        <v>61.04</v>
       </c>
       <c r="E17" t="n">
-        <v>214.51</v>
+        <v>263.78</v>
       </c>
       <c r="F17" t="n">
-        <v>481.49</v>
+        <v>432.22</v>
       </c>
       <c r="G17" t="n">
-        <v>349.795</v>
+        <v>423.66</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2756,32 +2836,32 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>30.8204022988506</v>
+        <v>37.8994252873563</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>19#</t>
+          <t>17#</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>285420</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>485812</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>654.49</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>696</v>
       </c>
       <c r="F18" t="n">
-        <v>696</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>601.89</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2796,32 +2876,32 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20#</t>
+          <t>18#</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>56900</v>
+        <v>12944</v>
       </c>
       <c r="C19" t="n">
-        <v>109823</v>
+        <v>170862</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>22.78</v>
       </c>
       <c r="E19" t="n">
-        <v>696</v>
+        <v>214.51</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>481.49</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>349.795</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2836,30 +2916,30 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>100</v>
+        <v>30.8204022988506</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>21#</t>
+          <t>19#</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>57000</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>62175</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>696</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
@@ -2876,20 +2956,20 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>22#</t>
+          <t>20#</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>59900</v>
+        <v>56900</v>
       </c>
       <c r="C21" t="n">
-        <v>111670</v>
+        <v>109823</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2922,23 +3002,23 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>23#</t>
+          <t>21#</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>57000</v>
       </c>
       <c r="C22" t="n">
-        <v>25583</v>
+        <v>62175</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>696</v>
       </c>
       <c r="F22" t="n">
-        <v>696</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2956,20 +3036,20 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>24#</t>
+          <t>22#</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>83800</v>
+        <v>59900</v>
       </c>
       <c r="C23" t="n">
-        <v>199165</v>
+        <v>111670</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -3002,24 +3082,24 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>25#</t>
+          <t>23#</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>63500</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>166499</v>
+        <v>25583</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>696</v>
       </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
@@ -3036,20 +3116,20 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>26#</t>
+          <t>24#</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>83700</v>
+        <v>83800</v>
       </c>
       <c r="C25" t="n">
-        <v>219442</v>
+        <v>199165</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -3082,14 +3162,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>27#</t>
+          <t>25#</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93600</v>
+        <v>63500</v>
       </c>
       <c r="C26" t="n">
-        <v>198767</v>
+        <v>166499</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -3122,23 +3202,23 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>28#</t>
+          <t>26#</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>83700</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>219442</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>696</v>
       </c>
       <c r="F27" t="n">
-        <v>696</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -3156,29 +3236,29 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>29#</t>
+          <t>27#</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>93600</v>
       </c>
       <c r="C28" t="n">
-        <v>49216</v>
+        <v>198767</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>696</v>
       </c>
       <c r="F28" t="n">
-        <v>696</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -3196,30 +3276,30 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>30#</t>
+          <t>28#</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93983</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>240957</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>696</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
@@ -3236,32 +3316,32 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>统计值</t>
+          <t>29#</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3264681</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>5942121</v>
+        <v>49216</v>
       </c>
       <c r="D30" t="n">
-        <v>8601.719999999999</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>15279.01</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>5600.99</v>
+        <v>696</v>
       </c>
       <c r="G30" t="n">
-        <v>9614.960800000001</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -3276,144 +3356,112 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>73.17533524904211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>30#</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>93983</v>
+      </c>
+      <c r="C31" t="n">
+        <v>240957</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>696</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>统计值</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B32" t="n">
+        <v>3264681</v>
+      </c>
+      <c r="C32" t="n">
+        <v>5942121</v>
+      </c>
+      <c r="D32" t="n">
+        <v>8601.719999999999</v>
+      </c>
+      <c r="E32" t="n">
+        <v>15279.01</v>
+      </c>
+      <c r="F32" t="n">
+        <v>5600.99</v>
+      </c>
+      <c r="G32" t="n">
+        <v>9614.960800000001</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>73.17533524904211</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>统计值</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>累计量</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
         <is>
           <t>平均值</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>(kwh)</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>本月</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>本年</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>机器通讯中断，原因是通信损坏。</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>机器通讯中断，原因是通信损坏。</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>机器通讯中断，原因是通信损坏。</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>机器通讯中断，原因是通信损坏。</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>机器通讯中断，原因是通信损坏。</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>机器通讯中断，原因是通信损坏。</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>机器通讯中断，原因是通信损坏。</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>机器通讯中断，原因是通信损坏。</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>出场电量</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>3079440</v>
-      </c>
-      <c r="D33" t="n">
-        <v>5610360</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>机器通讯中断，原因是通信损坏。</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>机器通讯中断，原因是通信损坏。</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>机器通讯中断，原因是通信损坏。</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>机器通讯中断，原因是通信损坏。</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>机器通讯中断，原因是通信损坏。</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>机器通讯中断，原因是通信损坏。</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>机器通讯中断，原因是通信损坏。</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>机器通讯中断，原因是通信损坏。</t>
         </is>
       </c>
     </row>
@@ -3421,14 +3469,18 @@
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>下场电量</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>17220</v>
-      </c>
-      <c r="D34" t="n">
-        <v>63840</v>
+          <t>(kwh)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>本月</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>本年</t>
+        </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3475,14 +3527,14 @@
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
-          <t>发电量</t>
+          <t>出场电量</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3264681</v>
+        <v>3079440</v>
       </c>
       <c r="D35" t="n">
-        <v>5942121</v>
+        <v>5610360</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3529,14 +3581,14 @@
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
-          <t>综合场用电量</t>
+          <t>下场电量</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>202461</v>
+        <v>17220</v>
       </c>
       <c r="D36" t="n">
-        <v>395601</v>
+        <v>63840</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3583,14 +3635,14 @@
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>综合场用电率</t>
+          <t>发电量</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.0620155537401663</v>
+        <v>3264681</v>
       </c>
       <c r="D37" t="n">
-        <v>0.06657572270911349</v>
+        <v>5942121</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -3637,29 +3689,137 @@
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
+          <t>综合场用电量</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>202461</v>
+      </c>
+      <c r="D38" t="n">
+        <v>395601</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>机器通讯中断，原因是通信损坏。</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>机器通讯中断，原因是通信损坏。</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>机器通讯中断，原因是通信损坏。</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>机器通讯中断，原因是通信损坏。</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>机器通讯中断，原因是通信损坏。</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>机器通讯中断，原因是通信损坏。</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>机器通讯中断，原因是通信损坏。</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>机器通讯中断，原因是通信损坏。</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>综合场用电率</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0.0620155537401663</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.06657572270911349</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>机器通讯中断，原因是通信损坏。</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>机器通讯中断，原因是通信损坏。</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>机器通讯中断，原因是通信损坏。</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>机器通讯中断，原因是通信损坏。</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>机器通讯中断，原因是通信损坏。</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>机器通讯中断，原因是通信损坏。</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>机器通讯中断，原因是通信损坏。</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>机器通讯中断，原因是通信损坏。</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
           <t>未结算电量</t>
         </is>
       </c>
-      <c r="C38" t="n">
+      <c r="C40" t="n">
         <v>3079440</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D40" t="n">
         <v>3079440</v>
       </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="n">
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="n">
         <v>7.16</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>m/s</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
